--- a/public/QuestionsTemplate.xlsx
+++ b/public/QuestionsTemplate.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>questionType</t>
-  </si>
-  <si>
-    <t>answerSelectionType</t>
-  </si>
-  <si>
-    <t>answers</t>
-  </si>
-  <si>
-    <t>correctAnswer</t>
-  </si>
-  <si>
-    <t>messageForCorrectAnswer</t>
-  </si>
-  <si>
-    <t>messageForIncorrectAnswer</t>
-  </si>
-  <si>
-    <t>explanation</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>quizTitle</t>
   </si>
@@ -74,19 +48,103 @@
     <t>single</t>
   </si>
   <si>
-    <t>ReactJS is developed by _____?</t>
-  </si>
-  <si>
-    <t>Google Engineers,Facebook Engineers</t>
-  </si>
-  <si>
-    <t>Correct answer. Good job.</t>
-  </si>
-  <si>
-    <t>Incorrect answer. Please try again.</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.</t>
+    <t>Вопрос 1</t>
+  </si>
+  <si>
+    <t>1 + 1 = …</t>
+  </si>
+  <si>
+    <t>Тип вопроса</t>
+  </si>
+  <si>
+    <t>Выбор ответа</t>
+  </si>
+  <si>
+    <t>Варианты ответов</t>
+  </si>
+  <si>
+    <t>Один,Два,Три</t>
+  </si>
+  <si>
+    <t>Правильный ответ</t>
+  </si>
+  <si>
+    <t>Сообщение для правильного ответа</t>
+  </si>
+  <si>
+    <t>Верный ответ</t>
+  </si>
+  <si>
+    <t>Сообщение для ошибочного ответа</t>
+  </si>
+  <si>
+    <t>Мда кринж…</t>
+  </si>
+  <si>
+    <t>Объяснение решения</t>
+  </si>
+  <si>
+    <t>1 + 1 = 2, потому что …</t>
+  </si>
+  <si>
+    <t>Количество очков</t>
+  </si>
+  <si>
+    <t>Вопрос 2</t>
+  </si>
+  <si>
+    <t>Необходимые знания для управления системами:</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>Поплавок карбюратора,Решение задачи о трех друзьях,Теория управления</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Сразу видно что умеешь управлять</t>
+  </si>
+  <si>
+    <t>Кто то тут не управленец</t>
+  </si>
+  <si>
+    <t>Нет ну тут все просто - просто не задавай глупых вопросов, всем управленцам нужно знать как работает поплавок карбюратора</t>
+  </si>
+  <si>
+    <t>На листе с вопросами не должно быть ничего кроме двух первых заполненных столбцов</t>
+  </si>
+  <si>
+    <t>Вопросы идут друг за другом без пропусков строк</t>
+  </si>
+  <si>
+    <t>Каждый вопрос занимает ровно 9 строк</t>
+  </si>
+  <si>
+    <t>Атрибут вопроса</t>
+  </si>
+  <si>
+    <t>На текущий момент тип вопроса всегда "text"</t>
+  </si>
+  <si>
+    <t>single если верный ответ 1</t>
+  </si>
+  <si>
+    <t>multiple если верных ответов несколько</t>
+  </si>
+  <si>
+    <t>Варианты ответов перечисляются в одной ячейке через запятую</t>
+  </si>
+  <si>
+    <t>Для одного правильного: Номер правильного ответа (отсчет начиная с единицы)</t>
+  </si>
+  <si>
+    <t>Для нескольких правильных: Номер ответов через запятую, ОБЯЗАТЕЛЬНО после запятых - пробелы (особенность экселя))</t>
+  </si>
+  <si>
+    <t>Каждому вопросу необходимо задать его вес в очках - любое положительное целое число</t>
   </si>
 </sst>
 </file>
@@ -429,191 +487,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/QuestionsTemplate.xlsx
+++ b/public/QuestionsTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="191">
   <si>
     <t>quizTitle</t>
   </si>
@@ -36,12 +36,6 @@
     <t>nrOfQuestions</t>
   </si>
   <si>
-    <t>Тестовый опрос</t>
-  </si>
-  <si>
-    <t>Я тут просто делаю пример</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Вопрос 1</t>
   </si>
   <si>
-    <t>1 + 1 = …</t>
-  </si>
-  <si>
     <t>Тип вопроса</t>
   </si>
   <si>
@@ -63,57 +54,24 @@
     <t>Варианты ответов</t>
   </si>
   <si>
-    <t>Один,Два,Три</t>
-  </si>
-  <si>
     <t>Правильный ответ</t>
   </si>
   <si>
     <t>Сообщение для правильного ответа</t>
   </si>
   <si>
-    <t>Верный ответ</t>
-  </si>
-  <si>
     <t>Сообщение для ошибочного ответа</t>
   </si>
   <si>
-    <t>Мда кринж…</t>
-  </si>
-  <si>
     <t>Объяснение решения</t>
   </si>
   <si>
-    <t>1 + 1 = 2, потому что …</t>
-  </si>
-  <si>
     <t>Количество очков</t>
   </si>
   <si>
     <t>Вопрос 2</t>
   </si>
   <si>
-    <t>Необходимые знания для управления системами:</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>Поплавок карбюратора,Решение задачи о трех друзьях,Теория управления</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Сразу видно что умеешь управлять</t>
-  </si>
-  <si>
-    <t>Кто то тут не управленец</t>
-  </si>
-  <si>
-    <t>Нет ну тут все просто - просто не задавай глупых вопросов, всем управленцам нужно знать как работает поплавок карбюратора</t>
-  </si>
-  <si>
     <t>На листе с вопросами не должно быть ничего кроме двух первых заполненных столбцов</t>
   </si>
   <si>
@@ -145,13 +103,559 @@
   </si>
   <si>
     <t>Каждому вопросу необходимо задать его вес в очках - любое положительное целое число</t>
+  </si>
+  <si>
+    <t>Когда были проведены анализ и обобщение понятий, составляющих основу ТРИЗ-образования?</t>
+  </si>
+  <si>
+    <t>Вопрос 3</t>
+  </si>
+  <si>
+    <t>Вопрос 4</t>
+  </si>
+  <si>
+    <t>Вопрос 5</t>
+  </si>
+  <si>
+    <t>Вопрос 6</t>
+  </si>
+  <si>
+    <t>Вопрос 7</t>
+  </si>
+  <si>
+    <t>Вопрос 8</t>
+  </si>
+  <si>
+    <t>Вопрос 9</t>
+  </si>
+  <si>
+    <t>Вопрос 10</t>
+  </si>
+  <si>
+    <t>Вопрос 11</t>
+  </si>
+  <si>
+    <t>Вопрос 12</t>
+  </si>
+  <si>
+    <t>Вопрос 13</t>
+  </si>
+  <si>
+    <t>Вопрос 14</t>
+  </si>
+  <si>
+    <t>Вопрос 15</t>
+  </si>
+  <si>
+    <t>Вопрос 16</t>
+  </si>
+  <si>
+    <t>Вопрос 17</t>
+  </si>
+  <si>
+    <t>Вопрос 18</t>
+  </si>
+  <si>
+    <t>Вопрос 19</t>
+  </si>
+  <si>
+    <t>Вопрос 20</t>
+  </si>
+  <si>
+    <t>Вопрос 21</t>
+  </si>
+  <si>
+    <t>Вопрос 22</t>
+  </si>
+  <si>
+    <t>Вопрос 23</t>
+  </si>
+  <si>
+    <t>Вопрос 24</t>
+  </si>
+  <si>
+    <t>Вопрос 25</t>
+  </si>
+  <si>
+    <t>Вопрос 26</t>
+  </si>
+  <si>
+    <t>Вопрос 27</t>
+  </si>
+  <si>
+    <t>Вопрос 28</t>
+  </si>
+  <si>
+    <t>Вопрос 29</t>
+  </si>
+  <si>
+    <t>Вопрос 30</t>
+  </si>
+  <si>
+    <t>С начала 90-х гг. ХХ, В конце 90-х, В начале 2000-х</t>
+  </si>
+  <si>
+    <t>анализ и обобщение понятий, составляющих основу ТРИЗ-образования в начале 90-х гг. ХХ</t>
+  </si>
+  <si>
+    <t>Какую  область исследования сформировала необходимость преподавания ТРИЗ?</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика, ТРИЗ сформировала необходимость преподавания в области философии и истории искусства, ТРИЗ не требует преподавания она изучается самостоятельно</t>
+  </si>
+  <si>
+    <t>необходимость преподавания ТРИЗ сформировала область исследования ТРИЗ-педагогики</t>
+  </si>
+  <si>
+    <t>Что представлено в работе, выполненной при поддержке корейско-российского Центра сотрудничества по науке и технологии KORUSTEC?</t>
+  </si>
+  <si>
+    <t>представлен анализ современного состояния ТРИЗ-образования его концептуальные программно-технологические и исторические аспекты развития, В работе представлены исследования по археологии в Австралии, исследователи представили новый способ возделывания картофеля на Луне</t>
+  </si>
+  <si>
+    <t>в работе, выполненной при поддержке корейско-российского Центра сотрудничества по науке и технологии KORUSTEC представлен анализ современного состояния ТРИЗ-образования, его концептуальные, программно-технологические и исторические аспекты развития</t>
+  </si>
+  <si>
+    <t>Что происходит с количеством исследований в области ТРИЗ-образования?</t>
+  </si>
+  <si>
+    <t>количество исследований растет с каждым годом появляются разноречивые определения понятий ТРИЗ-образования в словарях и пособиях, С количеством исследований в области ТРИЗ-образования происходит странное явление: каждый год они уменьшаются в геометрической прогрессии, С количеством исследований в области ТРИЗ-образования происходит странный эффект: каждый год они уменьшаются</t>
+  </si>
+  <si>
+    <t>так как ТРИЗ-образование с каждым годом набирает популярность, количество исследований растет с каждым годом и начинают появляться множество различных трактовок и определений</t>
+  </si>
+  <si>
+    <t>Теория решения изобретательских задач (ТРИЗ) - это</t>
+  </si>
+  <si>
+    <t>наука о решении проблем основанная на объективных закономерностях развития систем, это концепция основанная на предположении что все местные жители Марса обладают врожденными способностями к изобретательству, это секретный кодекс содержащий магические формулы и заклинания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под ТРИЗ понимается набор методик, предназначенных для решения различных задач и усовершенствования систем. </t>
+  </si>
+  <si>
+    <t>Что должно стать с образованием, чтобы стать движущей силой современного общества?</t>
+  </si>
+  <si>
+    <t>Образование должно измениться</t>
+  </si>
+  <si>
+    <t>Образование должно измениться, Чтобы стать движущей силой современного общества образование должно перестать существовать в физическом мире и стать виртуальной реальностью, Образование должно оставаться недоступным и неизменным чтобы оставаться движущей силой современного общества</t>
+  </si>
+  <si>
+    <t>Какая задача формирования личности становится актуальной?</t>
+  </si>
+  <si>
+    <t>Cамостоятельно добывать новые знания и оперативно корректировать свою картину мира в соответствии с вновь полученными знаниями, Формирование личности становится актуальным для вопросов о погоде, Формирование личности не имеет значения и не является актуальной задачей</t>
+  </si>
+  <si>
+    <t>Основной целью развития личности является воспитание гармоничного члена социума, способного принимать самостоятельные решения, добывать новые знания, видеть новые горизонты</t>
+  </si>
+  <si>
+    <t>Для каких стран на сегодняшний день ТРИЗ доступна для развития в системах образования?</t>
+  </si>
+  <si>
+    <t>Европы Азии и Латинской Америки, Для стран на сегодняшний день ТРИЗ доступна только для развития в странах где ежедневно снег идет вверх, ТРИЗ доступна для развития в системах образования только для России</t>
+  </si>
+  <si>
+    <t>В странах Европы, Азии и Латинской Америки на сегодняшний день ТРИЗ доступна для развития в системах образования</t>
+  </si>
+  <si>
+    <t>Кто написал программы обучающих семинаров по основам классической ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Г.С. Альтшуллер, программы обучающих семинаров по основам классической ТРИЗ были написаны Николаем Генриховичем Рубином, программы обучающих семинаров по основам классической ТРИЗ были написаны Г.С. Контом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Г.С. Альтшуллер написал программы обучающих семинаров по основам классической ТРИЗ</t>
+  </si>
+  <si>
+    <t>Предметная дидактика – это</t>
+  </si>
+  <si>
+    <t>отбор и формирование содержания предмета ТРИЗ а также соответствующих методов, Это древний искусственный язык созданный группой экспертов-лингвистов чтобы облегчить коммуникацию между учеником и предметом обучения, Это практика использования особых магнитных полей и энергетических потоков в классе чтобы создать атмосферу в которой знания и информация проникают в сознание учеников.</t>
+  </si>
+  <si>
+    <t>Предметная дидактика – это отбор и формирование содержания предмета ТРИЗ, а также соответствующих методов.</t>
+  </si>
+  <si>
+    <t>Что  в целом может стать одной из задач ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Анализ и прогноз образования на основе использования законов развития систем, В целом одной из задач ТРИЗ-педагогики может быть обучение учеников плохо решать задачи и развитие их низкого творческого потенциала, В целом одной из задач ТРИЗ-педагогики может быть формирование учениками устойчивых привычек низкого критического мышления и отсутствия творческой активности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отличительная особенность ТРИЗ-педагогики заключается в том, что ребенок в игровой форме усваивает обобщенные алгоритмы организации собственной творческой деятельности. </t>
+  </si>
+  <si>
+    <t>Что представляет собой ТРИЗ-педагогика как научное направление?</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика представляет собой интегрированное научное направление исследующее рациональные средства образования (воспитания и обучения) и развития творческой личности, ТРИЗ-педагогика как научное направление не продемонстрировала своей эффективности, ТРИЗ-педагогика как научное направление представляет собой нечто абстрактное и неуловимое лишенное научных оснований и неспособное принести реальную пользу в образовательном процессе</t>
+  </si>
+  <si>
+    <t>выделение проблем с помощью ТРИЗ-педагогики позволило совершенствование педагогической практики и повышение эффективности образовательного процесса, обеспечивающего реализацию творческой составляющей содержания.</t>
+  </si>
+  <si>
+    <t>Как описывается учебная деятельность, связанная с ТРИЗ-педагогикой?</t>
+  </si>
+  <si>
+    <t>Учебная деятельность связанная с ТРИЗ-педагогикой описывается как организованная учебная деятельность по формированию у учащихся качеств творческой личности с целью максимального раскрытия ее способностей и реализации ее возможностей на благо всего общества, Учебная деятельность связанная с ТРИЗ-педагогикой описывается как механическое запоминание стандартных решений и алгоритмов без участия творческого мышления, Учебная деятельность связанная с ТРИЗ-педагогикой описывается как процесс в котором ученики сами приходят к правильным ответам без поддержки и помощи педагога</t>
+  </si>
+  <si>
+    <t>В целом одной из задач ТРИЗ-педагогики может стать анализ и прогноз</t>
+  </si>
+  <si>
+    <t>на какие особенности ТРИЗ-педагогики большинство специалистов указывают?</t>
+  </si>
+  <si>
+    <t>• направленность на формирование творческой личности готовой к устойчивому саморазвитию и совершенствованию динамичного мира;
+• использование методологии ТРИЗ как содержания образования и как средства развития педагогических систем и процессов, Большинство специалистов указывают на отсутствие эмоциональной составляющей и интереса со стороны учащихся в рамках ТРИЗ-педагогики, Большинство специалистов указывают на сложность и неприменимость основных принципов ТРИЗ-педагогики в реальной педагогической практике</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика представляет собой интегрированное научное направление, исследующее рациональные средства образования (воспитания и обучения) и развития творческой личности.</t>
+  </si>
+  <si>
+    <t>Чем обусловлена востребованность технологий на базе ТРИЗ в педагогике?</t>
+  </si>
+  <si>
+    <t>Востребованность технологий на базе ТРИЗ в педагогике обусловлена возможностями ТРИЗ-образования решать задачи развития личности в творческой деятельности на технологическом уровне, Востребованность технологий на базе ТРИЗ в педагогике обусловлена их сложностью и неприменимостью в реальных образовательных процессах, Востребованность технологий на базе ТРИЗ в педагогике обусловлена их низкой эффективностью в развитии творческого мышления и критического мышления у учащихся</t>
+  </si>
+  <si>
+    <t>ТРИЗ, или теория решения изобретательских задач — набор методов решения задач и усовершенствования систем, в основе которых лежит креативный подход.</t>
+  </si>
+  <si>
+    <t>Какие методики входят в содержательный состав ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Содержательный состав ТРИЗ-педагогики включает в себя методики преподавания отдельных компонентов – ТРИЗ развития творческого воображения (РТВ) теории развития творческой личности (ТРТЛ) и использование методов ТРИЗ для решения проблем возникающих в образовательном процессе, В содержательный состав ТРИЗ-педагогики входят методики основанные на строгом контроле и дрессировке учащихся лишенные элементов самостоятельного творчества, В содержательный состав ТРИЗ-педагогики входят методики которые сосредоточены на запоминании фактов и формулах а не на развитии творческого потенциала</t>
+  </si>
+  <si>
+    <t>Какие разделы находятся в начале становления в ТРИЗ-педагогике?</t>
+  </si>
+  <si>
+    <t>В начале становления находятся разделы отражающие управление прогнозирование процесса формирования личности в творческой деятельности и психологическое сопровождение личности в творчестве, В ТРИЗ-педагогике разделы связанные с развитием индивидуальности и критического мышления находятся в начале своего становления, В ТРИЗ-педагогике разделы связанные с развитием индивидуальности и самостоятельности учащихся находятся в начале своего становления</t>
+  </si>
+  <si>
+    <t>Отличительная особенность ТРИЗ-педагогики заключается в том, что ребенок в игровой форме усваивает обобщенные алгоритмы организации собственной творческой деятельности</t>
+  </si>
+  <si>
+    <t>Что является основными источниками содержания ТРИЗ образования для школьников?</t>
+  </si>
+  <si>
+    <t>1) решательные инструменты ТРИЗ; 2) ТРТЛ; 3) РТВ; 4) общая теория сильного мышления (ОТСМ) на базе классической ТРИЗ, Основными источниками содержания ТРИЗ образования для школьников являются классическая литература и исследования не связанные с техническим творчеством и изобретательством, Основными источниками содержания ТРИЗ-образования для школьников являются сказки и фантастическая литература</t>
+  </si>
+  <si>
+    <t>Содержательный состав ТРИЗ-педагогики включает в себя методики преподавания отдельных компонентов – ТРИЗ, развития творческого воображения (РТВ), теории развития творческой личности (ТРТЛ) и использование методов ТРИЗ для решения проблем, возникающих в образовательном процессе.</t>
+  </si>
+  <si>
+    <t>Что является отличительным признаком ТРИЗ-педагогики от других систем творческого образования.</t>
+  </si>
+  <si>
+    <t>Содержание образования на базе ТРИЗ, Отличительным признаком ТРИЗ-педагогики от других систем творческого образования является отсутствие фокуса на развитии творческого мышления у учащихся, Отличительным признаком ТРИЗ-педагогики от других систем творческого образования является отсутствие акцента на развитие системного мышления и аналитических навыков</t>
+  </si>
+  <si>
+    <t>Какие категории представлены в группе решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Группа решательных инструментов ТРИЗ представлена двумя категориями – инструменты для типовых преобразований систем и инструменты для работы с нетиповыми проблемами, В группе решательных инструментов ТРИЗ отсутствуют категории они представлены только отдельными методами и инструментами, В группе решательных инструментов ТРИЗ отсутствуют категории они представлены только одним всеобъемлющим инструментом.</t>
+  </si>
+  <si>
+    <t>1) решательные инструменты ТРИЗ; 2) ТРТЛ; 3) РТВ; 4) общая теория сильного мышления (ОТСМ) на базе классической ТРИЗ.</t>
+  </si>
+  <si>
+    <t>Какие инструменты относятся к первой категории группы решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>законы развития технических систем (ЗРТС) стандарты на решение изобретательских задач и вепольный анализ типовые приемы разрешения противоречий банки эффектов, относятся только методы не позволяющие находить новые и оригинальные решения проблем,  инструменты которые только ограничивают и затрудняют процесс решения проблем</t>
+  </si>
+  <si>
+    <t>Что позволяет освоение инструментов первой категории группы решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Освоение этих инструментов позволяет решать изобретательские задачи как типовые с точки зрения ТРИЗ, Освоение инструментов первой категории группы решательных инструментов ТРИЗ не дает возможности для развития творческого мышления и нахождения инновационных решений, Освоение инструментов первой категории группы решательных инструментов ТРИЗ не дает возможности для нахождения новаторских решений и улучшения качества продуктов и процессов</t>
+  </si>
+  <si>
+    <t>Группа решательных инструментов ТРИЗ представлена двумя категориями – инструменты для типовых преобразований систем и инструменты для работы с нетиповыми проблемами.</t>
+  </si>
+  <si>
+    <t>Какие инструменты применяются в образовательном процессе с использованием законов эволюции технических систем?</t>
+  </si>
+  <si>
+    <t>В образовательном процессе применяются законы эволюции технических систем для определения места системы на эволюционной кривой и разработки решений которые обеспечивают выполнение этих законов для развития системы, В образовательном процессе с использованием законов эволюции технических систем не применяются никакие инструменты так как эти законы не имеют никакого отношения к образованию, В образовательном процессе с использованием законов эволюции технических систем применяются только инструменты основанные на ограничении и задержке развития технических систем чтобы сохранить их статус-кво.</t>
+  </si>
+  <si>
+    <t>К первой категории относятся законы развития технических систем (ЗРТС), стандарты на решение изобретательских задач и вепольный анализ, типовые приемы разрешения противоречий, банки эффектов</t>
+  </si>
+  <si>
+    <t>Какую категорию решательных инструментов в классической ТРИЗ относят к алгоритму решения изобретательских задач?</t>
+  </si>
+  <si>
+    <t>Вторая категория, Категорию решательных инструментов в классической ТРИЗ не относят к алгоритму решения изобретательских задач, К сотой категории решательных инструментов в классической ТРИЗ относится алгоритм решения изобретательских задач (АРИЗ)</t>
+  </si>
+  <si>
+    <t>Освоение этих инструментов позволяет решать изобретательские задачи как типовые с точки зрения ТРИЗ</t>
+  </si>
+  <si>
+    <t>Для какой цели предназначен алгоритм решения изобретательских задач (АРИЗ)?</t>
+  </si>
+  <si>
+    <t>Алгоритм решения изобретательских задач (АРИЗ) предназначен для поиска нестандартных решений, Алгоритм решения изобретательских задач (АРИЗ) предназначен для усложнения процесса решения и затруднения поиска решений, Алгоритм решения изобретательских задач (АРИЗ) предназначен для приложения в повседневной жизни и решения бытовых проблем</t>
+  </si>
+  <si>
+    <t>АРИЗ - уникальный инструмент для поиска нетривиальных идей,  выявления и решения многих творческих проблем</t>
+  </si>
+  <si>
+    <t>Что требуется для полноценного освоения ТРИЗ-содержания?</t>
+  </si>
+  <si>
+    <t>Полноценное освоение ТРИЗ-содержания требует изучения АРИЗ или его адаптированных версий как инструмента для работы с нетиповыми проблемами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полноценное освоение ТРИЗ-содержания требует изучения АРИЗ или его адаптированных версий как инструмента для работы с нетиповыми проблемами, Для полноценного освоения ТРИЗ-содержания требуется только поверхностное знание инструментов и правил, Ничего   человек обладает ТРИЗ-содержанием с самого рождения </t>
+  </si>
+  <si>
+    <t>Ко второй категории решательных инструментов в классической ТРИЗ относится алгоритм решения изобретательских задач (АРИЗ)</t>
+  </si>
+  <si>
+    <t>На какие две категории можно разделить содержание ТРТЛ?</t>
+  </si>
+  <si>
+    <t>Содержание ТРТЛ можно разделить на две категории: картотека биографий творческих личностей и качества и стратегия творческой личности, Содержание ТРТЛ нельзя разделить на две категории оно представлено единым комплексом без какой-либо структурированности, "Содержание ТРТЛ можно разделить на категории "История ТРИЗ" и "Технические примеры" не затрагивая других аспектов образования</t>
+  </si>
+  <si>
+    <t>АРИЗ - комплексная программа алгоритмического типа, основанная на законах развития технических систем и предназначенная для анализа и решения изобретательских задач</t>
+  </si>
+  <si>
+    <t>Какую задачу ставит перед собой ТРИЗ-педагогика в отношении формирования качеств творческой личности?</t>
+  </si>
+  <si>
+    <t>Одной из основных задач ТРИЗ-педагогики является формирование качеств творческой личности, ТРИЗ-педагогика не ставит перед собой задачу формирования качеств творческой личности ее основной целью является просто передача фактического материала, ТРИЗ-педагогика не ставит перед собой задачи формирования качеств творческой личности ее основная цель - развитие конформизма и следование стандартным решениям</t>
+  </si>
+  <si>
+    <t>Какой курс представлен наиболее полно в содержании ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Курс РТВ (Развитие Творческого Воображения) представлен наиболее полно в содержании ТРИЗ-педагогики, Наиболее полно в содержании ТРИЗ-педагогики представлен курс посвященный законам механики, Наиболее полно в содержании ТРИЗ-педагогики представлен курс по истории древних цивилизаций</t>
+  </si>
+  <si>
+    <t>Теория развития творческой личности – область знаний, изучающая взаимосвязь личности и системы, которую она развивает, внешние проявления творческого стиля жизни, стратегию постановки и достижения творческих целей.</t>
+  </si>
+  <si>
+    <t>Какие основные блоки включает в себя курс РТВ?</t>
+  </si>
+  <si>
+    <t>Основные блоки курса РТВ включают в себя приемы и методы генерации фантастических идей шкалу для оценки научно-фантастических идей неалгоритмические методы приоритетно используемые для развития воображения и снятия психологической инерции, Курс РТВ включает в себя основные блоки связанные с искусством пения и музыкальными инструментами, Курс РТВ включает в себя основные блоки связанные с физической культурой и спортом</t>
+  </si>
+  <si>
+    <t>В курс РТВ включены приемы фантазирования и методы РТВ10.</t>
+  </si>
+  <si>
+    <t>ну как так, иди читай учебник по новой</t>
+  </si>
+  <si>
+    <t>ты хорошо подготовился</t>
+  </si>
+  <si>
+    <t>Какие характеристики имеют неформализованные знания специалистов?</t>
+  </si>
+  <si>
+    <t>Неформализованные знания специалистов характеризуются неконкретностью субъективностью и приблизительностью, Неформализованные знания специалистов имеют легко измеряемые параметры и четкие определения, Неформализованные знания специалистов имеют строго формализованный и структурированный характер</t>
+  </si>
+  <si>
+    <t>Формализованное знание — это знания в конкретной форме, которое можно хранить и передавать в неизменном виде. Значит неформолизованные это полная противоположность</t>
+  </si>
+  <si>
+    <t>Какие характеристики имеют неформализованные задачи?</t>
+  </si>
+  <si>
+    <t>Неформализованные задачи характеризуются тем что их нельзя задать в числовой форме цели не могут быть выражены в терминах точно определенной целевой функции не существует алгоритмического решения задачи алгоритмическое решение может существовать но его нельзя использовать из-за ограничений ресурсов вычислительной системы, Неформализованные задачи характеризуются точными правилами и ясными решениями, Неформализованные задачи характеризуются ясностью и четкостью требуемых результатов а также простотой и структурированностью в выполнении</t>
+  </si>
+  <si>
+    <t>Какие особенности обычно присущи неформализованным задачам?</t>
+  </si>
+  <si>
+    <t>Обычно неформализованные задачи характеризуются ошибочностью неоднозначностью неполнотой и противоречивостью данных и знаний о программном обеспечении Они также могут иметь динамически изменяемые данные и знания а также большой размер пространства состояний что делает перебор при поиске решения сложным, Неформализованные задачи обычно имеют явную структуру и однозначные решения, Неформализованные задачи обычно характеризуются ясностью целей структурированностью и четкими требованиями что делает их легкими и простыми в решении</t>
+  </si>
+  <si>
+    <t>Чем отличаются системы искусственного интеллекта, включая экспертные системы, от систем обработки данных?</t>
+  </si>
+  <si>
+    <t>Отличие заключается в том что системы искусственного интеллекта используют символьное представление данных символьный вывод и эвристический поиск решения в отличие от систем обработки данных которые работают с числовыми данными и готовыми алгоритмами, Системы искусственного интеллекта включая экспертные системы и системы обработки данных отличаются только размером и скоростью обработки информации Обе они используют одинаковые алгоритмы и методы для работы с данными, Системы искусственного интеллекта включая экспертные системы не отличаются от систем обработки данных так как выполняют аналогичные функции и обрабатывают данные похожим образом</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ИИ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — технология, позволяющая системе, машине или компьютеру выполнять задачи, требующие разумного мышления, то есть имитировать поведение человека для постепенного обучения с использованием полученной информации и решения конкретных вопросов. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Системы обработки данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – это комплекс взаимодействующих методов и средств сбора и обработки электронной информации, необходимых для управления объектами с помощью электронно-вычислительных машин (ЭВМ) и других средств информационной техники.</t>
+    </r>
+  </si>
+  <si>
+    <t>В чем состоит специфика экспертных систем по сравнению с другими типами систем искусственного интеллекта?</t>
+  </si>
+  <si>
+    <t>Экспертные системы применяются для решения практически трудных задач их решения не уступают решениям человека-эксперта по качеству и эффективности. Решения экспертных систем могут быть объяснены на качественном уровне так как они способны рассуждать о своих знаниях и умозаключениях. Знания используемые в экспертных системах являются эвристическими экспериментальными и неопределенными так как решаемые задачи неформализованные или слабо формализованные. Экспертные системы также обеспечивают дружественный интерфейс с пользователем, Специфика экспертных систем в том что они не используют никаких специальных знаний или алгоритмов искусственного интеллекта. Они полагаются только на случайность и случайные вычисления для принятия решений, Экспертные системы не имеют особых специфических особенностей по сравнению с другими типами систем искусственного интеллекта. Они функционируют на основе тех же принципов и методов</t>
+  </si>
+  <si>
+    <t>Экспе́ртная систе́ма — компьютерная система, способная частично заменить специалиста-эксперта в разрешении проблемной ситуации.</t>
+  </si>
+  <si>
+    <t>Что определяет мощность экспертных систем?</t>
+  </si>
+  <si>
+    <t>Мощность экспертных систем в первую очередь определяется мощностью базы знаний а только во вторую - используемыми методами вывода. То есть важнее иметь разнообразные специальные знания чем общие процедуры вывода, Мощность экспертных систем определяется их способностью создавать неправильные выводы и делать ошибки в принятии решений. Чем больше ошибок и неправильных выводов делает экспертная система тем сильнее и мощнее она считается, Мощность экспертных систем определяется только процессорной мощностью компьютера на котором они работают</t>
+  </si>
+  <si>
+    <t>чем обширнее база знаний и методы ввода тем лучше экспертая система</t>
+  </si>
+  <si>
+    <t>Какие задачи решает экспертная система?</t>
+  </si>
+  <si>
+    <t>Экспертные системы решают практически трудные задачи которые требуют многолетнего образования и опыта у человека, Экспертная система не решает никаких задач и не предоставляет никакой ценной информации или рекомендаций, Экспертная система решает только простые рутинные задачи не способна обрабатывать сложные или нетипичные ситуации</t>
+  </si>
+  <si>
+    <t>Экспе́ртная систе́ма — компьютерная система, способная частично заменить специалиста-эксперта в разрешении проблемной ситуации</t>
+  </si>
+  <si>
+    <t>Что способна делать экспертная система в процессе работы?</t>
+  </si>
+  <si>
+    <t>В процессе работы экспертная система способна оперативно находить ответы на вопросы о происхождении событий давать рекомендации о действиях оценивать эффективность предпринятых действий и т.д, В процессе работы экспертная система не способна анализировать данные принимать решения или предоставлять рекомендации, Экспертная система не способна делать ничего в процессе работы она лишь хранит и предоставляет информацию анализируя вопросы и давая рекомендации на основе заранее заданных правил и знаний</t>
+  </si>
+  <si>
+    <t>Какие компоненты базы знаний составляют основу экспертной системы?</t>
+  </si>
+  <si>
+    <t>Основу базы знаний экспертной системы составляют факты и правила, Основой экспертной системы является ее алгоритм который обрабатывает информацию из базы знаний и принимает решения, Основу экспертной системы составляют только факты а правила не используются в базе знаний</t>
+  </si>
+  <si>
+    <t>Основу базы знаний экспертной системы составляют факты и правила</t>
+  </si>
+  <si>
+    <t>Что хранит база знаний экспертной системы?</t>
+  </si>
+  <si>
+    <t>База знаний экспертной системы хранит множество продукций которые в общем случае представляют собой правила, База знаний экспертной системы хранит информацию необходимую для принятия решений и решения задач в конкретной области, Рабочая память хранит текущие данные и промежуточные результаты работы экспертной системы</t>
+  </si>
+  <si>
+    <t>База знаний экспертной системы хранит множество продукций, которые в общем случае представляют собой правила</t>
+  </si>
+  <si>
+    <t>Что называют административным противоречием?</t>
+  </si>
+  <si>
+    <t>Ситуация когда существует неготивное явление неизвестной природы, Взаимодействие в системе при котором усиление некоторого полезного действия обязательно влечет усиление какого-то вредного действия, Ситуация когда одни тот же объект должен обладать противоположными свойствами</t>
+  </si>
+  <si>
+    <t>Что называют техническим противоречием?</t>
+  </si>
+  <si>
+    <t>Что называют физическим противоречием?</t>
+  </si>
+  <si>
+    <t>Как называется промежуток времени, в котором проявляется конфликт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оперативное время, Конфликнтый период, Время конфликта
+</t>
+  </si>
+  <si>
+    <t>Верно ли высказывание "Оперативная зона – место, в пределах которого возникает конфликт."</t>
+  </si>
+  <si>
+    <t>да, нет, не знаю</t>
+  </si>
+  <si>
+    <t>Какие первый шаг АРИЗ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализ задачи, Анализ модели задачи, Определение ИКР
+</t>
+  </si>
+  <si>
+    <t>Необходимо ли проанализировать ход решения и дополнить инфофонд после решения задачи.</t>
+  </si>
+  <si>
+    <t>да, нет, по желанию</t>
+  </si>
+  <si>
+    <t>Что является оперативным времянем в данной задаче</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Момент переполнения кэш-памяти, Все время работы программы, Момент помещения новой записи в кэш-память
+</t>
+  </si>
+  <si>
+    <t>С какой целью выполняется архивирование?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уменьшение объема данных, Защита данных от несанкционированного доступа, Защита данных от искажения 
+</t>
+  </si>
+  <si>
+    <t>Что такое "образ записи"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заархивированная запись, Малоразмерная копия записи, Аналогичная по своим свойствам запись но меньшая по объему
+</t>
+  </si>
+  <si>
+    <t>Вопрос 31</t>
+  </si>
+  <si>
+    <t>Вопрос 32</t>
+  </si>
+  <si>
+    <t>Финальное тестирование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +676,28 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -195,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -204,7 +730,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,190 +1038,3654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>52</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>53</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>54</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>33</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>34</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>35</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>36</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>37</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>38</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>39</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>40</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>41</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="4"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>42</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>200</v>
-      </c>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="4"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>43</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="4"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>44</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="4"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>45</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="4"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>46</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="4"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>47</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="4"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>48</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B430" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B431" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B435" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>49</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B439" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B440" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="4"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>50</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A448" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="4"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="7"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="7"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="7"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="7"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="7"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,84 +4697,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
